--- a/output.xlsx
+++ b/output.xlsx
@@ -14,99 +14,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
-  <si>
-    <t>[4, 7]</t>
-  </si>
-  <si>
-    <t>[3, 7]</t>
-  </si>
-  <si>
-    <t>[3, 4, 7]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+  <si>
+    <t>[4, 8]</t>
+  </si>
+  <si>
+    <t>[5, 8, 9]</t>
+  </si>
+  <si>
+    <t>[4, 9]</t>
+  </si>
+  <si>
+    <t>[4, 5, 9]</t>
   </si>
   <si>
     <t>[7, 8]</t>
   </si>
   <si>
-    <t>[4, 8, 9]</t>
-  </si>
-  <si>
-    <t>[3, 4, 8, 9]</t>
-  </si>
-  <si>
-    <t>[4, 8]</t>
-  </si>
-  <si>
-    <t>[3, 4]</t>
-  </si>
-  <si>
-    <t>[4, 6, 8, 9]</t>
-  </si>
-  <si>
-    <t>[8, 9]</t>
-  </si>
-  <si>
-    <t>[1, 4, 6, 8, 9]</t>
-  </si>
-  <si>
-    <t>[1, 4, 9]</t>
-  </si>
-  <si>
-    <t>[2, 6, 8]</t>
-  </si>
-  <si>
-    <t>[2, 8]</t>
-  </si>
-  <si>
-    <t>[2, 4, 5, 7, 9]</t>
-  </si>
-  <si>
-    <t>[2, 3, 7, 9]</t>
-  </si>
-  <si>
-    <t>[3, 4, 5, 7, 9]</t>
-  </si>
-  <si>
-    <t>[2, 4]</t>
-  </si>
-  <si>
-    <t>[4, 9]</t>
-  </si>
-  <si>
-    <t>[2, 4, 9]</t>
-  </si>
-  <si>
-    <t>[6, 9]</t>
-  </si>
-  <si>
-    <t>[2, 7]</t>
-  </si>
-  <si>
-    <t>[5, 7]</t>
-  </si>
-  <si>
-    <t>[2, 5]</t>
-  </si>
-  <si>
-    <t>[5, 8, 9]</t>
-  </si>
-  <si>
-    <t>[4, 5, 6]</t>
-  </si>
-  <si>
-    <t>[3, 4, 6, 9]</t>
+    <t>[5, 9]</t>
+  </si>
+  <si>
+    <t>[5, 7, 9]</t>
+  </si>
+  <si>
+    <t>[4, 7, 8]</t>
+  </si>
+  <si>
+    <t>[3, 5, 7, 8, 9]</t>
+  </si>
+  <si>
+    <t>[3, 4, 7, 9]</t>
+  </si>
+  <si>
+    <t>[1, 5]</t>
+  </si>
+  <si>
+    <t>[1, 8]</t>
+  </si>
+  <si>
+    <t>[4, 5, 8]</t>
+  </si>
+  <si>
+    <t>[3, 5, 9]</t>
   </si>
   <si>
     <t>[3, 4, 9]</t>
   </si>
   <si>
-    <t>[2, 9]</t>
-  </si>
-  <si>
-    <t>[1, 9]</t>
-  </si>
-  <si>
-    <t>[1, 2, 9]</t>
+    <t>[3, 4, 5, 9]</t>
+  </si>
+  <si>
+    <t>[1, 3, 5]</t>
+  </si>
+  <si>
+    <t>[4, 5]</t>
+  </si>
+  <si>
+    <t>[3, 5, 7]</t>
+  </si>
+  <si>
+    <t>[3, 4, 5, 7]</t>
+  </si>
+  <si>
+    <t>[3, 5]</t>
+  </si>
+  <si>
+    <t>[3, 7, 9]</t>
   </si>
 </sst>
 </file>
@@ -503,32 +476,32 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
         <v>3</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -536,31 +509,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
       </c>
       <c r="E3">
         <v>7</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
         <v>4</v>
       </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
       <c r="J3">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -568,31 +541,31 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="J4">
         <v>7</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -600,31 +573,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
         <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -632,63 +605,63 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>2</v>
+      <c r="B7" t="s">
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -696,63 +669,63 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>3</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
       <c r="J8">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
         <v>20</v>
       </c>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" t="s">
-        <v>29</v>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -760,13 +733,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -774,17 +747,17 @@
       <c r="F10">
         <v>7</v>
       </c>
-      <c r="G10" t="s">
-        <v>19</v>
+      <c r="G10">
+        <v>9</v>
       </c>
       <c r="H10">
-        <v>8</v>
-      </c>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -11,77 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
-  <si>
-    <t>[4, 8]</t>
-  </si>
-  <si>
-    <t>[5, 8, 9]</t>
-  </si>
-  <si>
-    <t>[4, 9]</t>
-  </si>
-  <si>
-    <t>[4, 5, 9]</t>
-  </si>
-  <si>
-    <t>[7, 8]</t>
-  </si>
-  <si>
-    <t>[5, 9]</t>
-  </si>
-  <si>
-    <t>[5, 7, 9]</t>
-  </si>
-  <si>
-    <t>[4, 7, 8]</t>
-  </si>
-  <si>
-    <t>[3, 5, 7, 8, 9]</t>
-  </si>
-  <si>
-    <t>[3, 4, 7, 9]</t>
-  </si>
-  <si>
-    <t>[1, 5]</t>
-  </si>
-  <si>
-    <t>[1, 8]</t>
-  </si>
-  <si>
-    <t>[4, 5, 8]</t>
-  </si>
-  <si>
-    <t>[3, 5, 9]</t>
-  </si>
-  <si>
-    <t>[3, 4, 9]</t>
-  </si>
-  <si>
-    <t>[3, 4, 5, 9]</t>
-  </si>
-  <si>
-    <t>[1, 3, 5]</t>
-  </si>
-  <si>
-    <t>[4, 5]</t>
-  </si>
-  <si>
-    <t>[3, 5, 7]</t>
-  </si>
-  <si>
-    <t>[3, 4, 5, 7]</t>
-  </si>
-  <si>
-    <t>[3, 5]</t>
-  </si>
-  <si>
-    <t>[3, 7, 9]</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,32 +405,32 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -509,31 +438,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
       </c>
       <c r="E3">
         <v>7</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>6</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -544,25 +473,25 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J4">
         <v>7</v>
@@ -572,96 +501,96 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
+      <c r="B5">
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
+      <c r="B6">
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -669,31 +598,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -701,31 +630,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -738,26 +667,26 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
       </c>
       <c r="F10">
         <v>7</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
